--- a/server/files/criteria11_data.xlsx
+++ b/server/files/criteria11_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>department</t>
   </si>
@@ -43,28 +43,34 @@
     <t>file1_1_3_2</t>
   </si>
   <si>
-    <t>Department of Hindi</t>
+    <t>Confucius Institute</t>
   </si>
   <si>
     <t>2022-2023</t>
   </si>
   <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1722078958503-755375470_be_computer-engineering_semester-4_2019_may_operating-system-cbcgs%20(1).pdf?alt=media&amp;token=a968fc55-f9df-4d07-ad13-fba2b99df219</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1722078965972-66932424_1711090219176-786981644_1710922622703-587001674_3.4.3%20(1).xlsx?alt=media&amp;token=2f585349-e4eb-4e8b-91b7-3f980f2190fa</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1722078965972-461406994_be_computer-engineering_semester-4_2019_december_operating-system-cbcgs%20(1).pdf?alt=media&amp;token=bad3677a-ad35-40ea-a4eb-d59ddc3eced1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1722078937264-635108359_1711090219176-786981644_1710922622703-587001674_3.4.3%20(1).xlsx?alt=media&amp;token=fd980701-0f2a-4842-83bc-ee300f70a827</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1722078937265-138599474_be_computer-engineering_semester-4_2019_december_operating-system-cbcgs%20(1).pdf?alt=media&amp;token=7952da4f-c250-4341-a8ac-45752d761ba1</t>
+    <t>sdfds</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1726976322381-368854625_Book.xlsx?alt=media&amp;token=2e83cdbd-6d52-4502-817d-382043bc9d30</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1726976323469-982948206_Book.xlsx?alt=media&amp;token=a418be41-9b14-4724-aaeb-ff449242022a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1726976324291-624864174_Experiment_No_1.docx?alt=media&amp;token=f84da9e0-5dc2-4a3e-ae06-9317cdf60321</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1726976324981-572483708_Book.xlsx?alt=media&amp;token=52fff5b7-0a08-4afd-9c3f-dc741bace9e7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/naac-fd101.appspot.com/o/uploads%2F1726976325477-352470886_Getting_started_with_OneDrive.pdf?alt=media&amp;token=7eca4a51-0df5-4442-a7be-ebfd43ee3e72</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -487,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -499,13 +505,77 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>1231</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
